--- a/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-BANCOS-MULTIPLES.xlsx
+++ b/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-BANCOS-MULTIPLES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\siglas-entidades-financieras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\SiglasEntidadesFinancieras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E567C0-61B6-4A56-9D1B-CB100D68D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF05D95-229A-420D-A1CC-F4869346C3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>SIGLA</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Banco Fassil S.A.</t>
+  </si>
+  <si>
+    <t>BUN</t>
+  </si>
+  <si>
+    <t>Banco Union S.A.</t>
+  </si>
+  <si>
+    <t>BDB</t>
+  </si>
+  <si>
+    <t>Banco Do Brasil S.A.</t>
   </si>
 </sst>
 </file>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +547,22 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
